--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N2">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P2">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q2">
-        <v>0.3441868660057777</v>
+        <v>1.560527438222222</v>
       </c>
       <c r="R2">
-        <v>3.097681794051999</v>
+        <v>14.044746944</v>
       </c>
       <c r="S2">
-        <v>0.0003541306847311383</v>
+        <v>0.001611958031179546</v>
       </c>
       <c r="T2">
-        <v>0.0003541306847311384</v>
+        <v>0.001611958031179546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P3">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q3">
-        <v>158.5225200294897</v>
+        <v>149.0365150377173</v>
       </c>
       <c r="R3">
-        <v>1426.702680265407</v>
+        <v>1341.328635339456</v>
       </c>
       <c r="S3">
-        <v>0.1631023554582888</v>
+        <v>0.1539483391767502</v>
       </c>
       <c r="T3">
-        <v>0.1631023554582888</v>
+        <v>0.1539483391767502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H4">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P4">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q4">
-        <v>21.94248546085855</v>
+        <v>20.62944472333511</v>
       </c>
       <c r="R4">
-        <v>197.482369147727</v>
+        <v>185.665002510016</v>
       </c>
       <c r="S4">
-        <v>0.02257642045186712</v>
+        <v>0.02130933316907123</v>
       </c>
       <c r="T4">
-        <v>0.02257642045186712</v>
+        <v>0.02130933316907123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P5">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q5">
-        <v>0.9991163945586666</v>
+        <v>4.818273869666668</v>
       </c>
       <c r="R5">
-        <v>8.992047551028</v>
+        <v>43.36446482700001</v>
       </c>
       <c r="S5">
-        <v>0.001027981622416782</v>
+        <v>0.004977070617534198</v>
       </c>
       <c r="T5">
-        <v>0.001027981622416782</v>
+        <v>0.004977070617534198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P6">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q6">
         <v>460.1641268483471</v>
@@ -818,10 +818,10 @@
         <v>4141.477141635123</v>
       </c>
       <c r="S6">
-        <v>0.473458616305179</v>
+        <v>0.4753298415431564</v>
       </c>
       <c r="T6">
-        <v>0.4734586163051789</v>
+        <v>0.4753298415431564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P7">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q7">
         <v>63.69533275840034</v>
@@ -880,10 +880,10 @@
         <v>573.2579948256031</v>
       </c>
       <c r="S7">
-        <v>0.06553553906827861</v>
+        <v>0.0657945516840929</v>
       </c>
       <c r="T7">
-        <v>0.06553553906827861</v>
+        <v>0.0657945516840929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06089466666666666</v>
+        <v>0.2936666666666667</v>
       </c>
       <c r="N8">
-        <v>0.182684</v>
+        <v>0.881</v>
       </c>
       <c r="O8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="P8">
-        <v>0.001903591634475228</v>
+        <v>0.009113820319201367</v>
       </c>
       <c r="Q8">
-        <v>0.5068364394795555</v>
+        <v>2.444236513222222</v>
       </c>
       <c r="R8">
-        <v>4.561527955316</v>
+        <v>21.998128619</v>
       </c>
       <c r="S8">
-        <v>0.0005214793273273076</v>
+        <v>0.002524791670487622</v>
       </c>
       <c r="T8">
-        <v>0.0005214793273273077</v>
+        <v>0.002524791670487622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.138969</v>
       </c>
       <c r="O9">
-        <v>0.8767392739472014</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="P9">
-        <v>0.8767392739472013</v>
+        <v>0.870405726797791</v>
       </c>
       <c r="Q9">
         <v>233.4342113673923</v>
@@ -1004,10 +1004,10 @@
         <v>2100.907902306531</v>
       </c>
       <c r="S9">
-        <v>0.2401783021837336</v>
+        <v>0.2411275460778845</v>
       </c>
       <c r="T9">
-        <v>0.2401783021837336</v>
+        <v>0.2411275460778845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.646409</v>
       </c>
       <c r="O10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="P10">
-        <v>0.1213571344183235</v>
+        <v>0.1204804528830076</v>
       </c>
       <c r="Q10">
         <v>32.31166643101011</v>
@@ -1066,10 +1066,10 @@
         <v>290.804997879091</v>
       </c>
       <c r="S10">
-        <v>0.03324517489817774</v>
+        <v>0.03337656802984344</v>
       </c>
       <c r="T10">
-        <v>0.03324517489817774</v>
+        <v>0.03337656802984344</v>
       </c>
     </row>
   </sheetData>
